--- a/owlcms/src/test/resources/testData/records/test.xlsx
+++ b/owlcms/src/test/resources/testData/records/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351300D4-7547-4231-BEBA-EB9CEC9DA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275AFE1B-D35E-4F33-8212-E8865431A6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Absolutos Masc." sheetId="15" r:id="rId1"/>
@@ -160,7 +160,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,17 +224,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,7 +557,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +641,7 @@
       <c r="E2" s="8">
         <v>13</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <v>12</v>
       </c>
       <c r="G2" s="8">
@@ -913,7 +922,7 @@
       <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="8">
@@ -939,7 +948,7 @@
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="14" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="2"/>
@@ -980,7 +989,7 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="2"/>
@@ -1021,7 +1030,7 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="15" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="2"/>
@@ -1048,7 +1057,7 @@
       <c r="G12" s="8">
         <v>67</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1093,7 +1102,7 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="16" t="s">
         <v>31</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -1204,7 +1213,7 @@
       <c r="G16" s="8">
         <v>109</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="4" t="s">
